--- a/experiment/nonconvex/MitsosBarton2006Ex314/compare/Fuertemente-Estacionario/MitsosBarton2006Ex314_Fuertemente-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/compare/Fuertemente-Estacionario/MitsosBarton2006Ex314_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-15.754550167571555</v>
       </c>
       <c r="E2">
-        <v>0.0077009</v>
+        <v>0.0109236</v>
       </c>
       <c r="F2">
-        <v>0.0144398</v>
+        <v>0.0320265</v>
       </c>
       <c r="G2">
-        <v>0.008774371654929579</v>
+        <v>0.015471115887850467</v>
       </c>
       <c r="H2">
         <v>2982</v>
